--- a/results/2014年第1季.xlsx
+++ b/results/2014年第1季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>無</t>
         </is>
       </c>
     </row>
@@ -736,6 +736,7590 @@
       <c r="P4" t="inlineStr">
         <is>
           <t>1.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>356,714</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>301,314</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8,362</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18,489</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-30,918</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4,388</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-31,023</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>374,196</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,408,204</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2,996,832</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5,507,154</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,051,731</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,499,161</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,342,928</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,886,184</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-563,678</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>275,295</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,442,263</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>4,623,663</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>6,563,082</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>30,752,748</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6,348,330</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,006,657</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>446,337</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>509,371</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>324,405</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-805,793</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>564,635</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-94,436</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19,809,488</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>16,177,370</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>41,096,466</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7,701,334</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,207,338</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>664,451</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>750,464</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>57,356</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-36,042</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-89,417</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>45,412</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>5,607,112</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,574,941</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>20,382,434</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>178,004</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>96,532</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61,728</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>57,655</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>25,437</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-2,327</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>24,128</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>111,008</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>12,510</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>875,782</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>134</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12,127,615</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,381,208</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>781,440</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>755,297</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4,553,769</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-361,808</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>185,469</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>4,474,486</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>18,697,717</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,437,428</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>38,313,617</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-19,035</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-19,239</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-24,053</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-480</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-24,053</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>125,308</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-0.97</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>89,091</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,128,230</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1,667,026</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>500,163</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>203,536</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>213,380</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>528,416</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-815,449</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>7,339</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>296,035</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6,035,630</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>12,446,953</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>21,280,502</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>979,617</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>118,788</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11,470</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>68,506</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-38,570</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>5,154</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>48,500</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1,944,248</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>773,714</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3,184,281</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,160,946</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>882,790</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>570,716</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>524,691</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>887,951</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-83,884</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>108,525</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>674,525</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>16,225,024</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>13,663,336</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>39,473,426</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,158,339</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>497,660</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>239,762</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>206,612</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>326,459</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-75,157</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-234,569</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>250,331</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3,862,860</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2,719,472</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>8,770,517</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>9,122,934</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>118,518</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-160,306</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-210,898</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-2,029,484</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-500,909</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>424,429</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-2,301,340</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>13,038,574</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>18,448,537</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>44,656,919</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>206,661</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40,001</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-25,602</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-17,752</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-27,995</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-412</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>32,990</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-32,835</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>556,104</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>-2.29</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-1.25</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>605,060</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,331,509</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>192</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13,061,904</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4,635,030</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>205,935</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>213,996</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,641,307</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-1,019,732</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>377,703</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>612,619</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>16,573,083</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>8,757,263</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>21,471,082</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>498,044</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>96,721</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>16,757</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>11,580</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-27,228</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-27,170</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>7,256</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-43,259</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1,483,744</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,255,366</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2,630,845</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,231,029</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>306,539</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>178,676</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>171,146</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>587,842</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-538,928</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-296,572</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>53,029</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4,161,143</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>8,398,468</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>12,857,308</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,724,565</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>768,900</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>144,983</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>97,540</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>70,888</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-53,158</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-13,662</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5,761,698</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>786,176</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>12,870,484</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>923,407</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>112,207</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>47,112</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>33,187</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-334,039</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-240,562</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-327,530</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3,634,401</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5,789,062</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>7,785,927</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>28</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>309,587</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>59,148</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-3,606</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5,615</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>33,830</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-26,232</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4,623</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>11,658</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>936,833</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>690,548</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,880,640</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>64,016</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>42,766</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-11,717</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-21,513</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-13,351</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-11,139</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>21,936</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-22,927</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>85,325</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-4.63</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-3.88</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>102,315</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>555,633</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>268,451</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5,224</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-32,222</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-17,958</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>31,965</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-419</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-12,424</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>29,364</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>415,516</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>-0.79</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,029,507</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2,195,978</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>95</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>723,713</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>359,870</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>54,999</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>54,339</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>59,100</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-157,841</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>150,017</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-28,830</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1,635,678</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1,629,131</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>4,948,330</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>7,231,146</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>432,012</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73,098</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>83,146</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>85,547</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-21,764</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-53,768</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>79,164</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>4,186,014</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,897,636</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>8,601,707</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>73</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7,232,917</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>532,629</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>100,160</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>367,991</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-236,387</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>283,989</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-529,970</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-252,435</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>8,712,489</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4,630,461</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>18,494,128</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7,169,393</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>178,516</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72,794</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>52,821</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1,166,182</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-291,583</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-251,197</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>841,444</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>12,480,734</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,477,452</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>26,198,588</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>742,178</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>209,316</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93,717</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>91,566</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>19,101</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-20,271</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-42,473</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>15,082</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>569,399</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>935,156</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2,242,677</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>596,364</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>174,181</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74,908</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>75,499</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>149,246</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-8,123</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-96,025</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>145,165</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>880,263</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>214,224</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>1,410,818</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7,999,930</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,049,446</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-216,581</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-153,055</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-1,132,174</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-2,597</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1,953,011</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-1,265,863</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>25,070,664</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-1.01</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>12,738,930</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>40,279,859</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>153,081</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-21,641</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-29,936</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-41,466</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>18,018</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-23,710</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>16,547</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>242,044</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-1.56</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>385,327</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,875,652</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>92,415,530</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8,108,604</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4,725,632</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4,277,394</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13,029,996</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-11,781,942</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>3,165,572</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4,779,901</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>365,108,492</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>462,538,830</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>689,614,140</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,367,471</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-62,549</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-122,309</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-168,080</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-139,291</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-39,266</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>187,386</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-170,752</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>8,574,664</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-3.55</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.94</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10,099,524</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>13,232,303</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>981,798</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-9,177</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-25,245</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-38,155</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-22,239</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-33,396</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>15,510</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-27,022</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,575,906</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-0.87</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-0.60</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1,045,434</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,930,758</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>107</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>399,042</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>246,591</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76,806</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>63,186</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>47,876</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-24,654</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>23,837</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>742,525</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>687,647</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,640,310</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>48,019</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13,295</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1,149</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1,976</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-422,024</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>116,440</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>391,462</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-422,024</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>3,131,911</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>27,563</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>5,180,201</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>263,415</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>37,448</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1,174</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>33,028</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-4,752</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-43,956</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>28,998</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>504,791</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>461,518</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,293,119</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>370,995</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>69,005</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23,587</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>22,238</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-17,822</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-3,369</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>56,607</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-20,571</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>447,102</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>311,526</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,791,746</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>49.65</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>637,780</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-11,813</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-109,762</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-99,715</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-60,354</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-151,199</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-1,026</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-69,641</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,411,510</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-3.21</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-2.27</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>809,268</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>4,481,013</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>374,398</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>65,913</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>16,405</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>20,067</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-561</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-63,971</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>38,177</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-42,650</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>898,682</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>572,948</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1,938,496</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>49.05</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>6,611,781</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2,059,871</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>397,020</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>238,221</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-191,049</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-832,685</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>862,182</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-1,072,801</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>27,410,935</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>13,972,616</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>39,162,850</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>9.23</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>853,255</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>218,303</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-149,600</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-157,910</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-151,975</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-194,880</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>92,496</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-361,653</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>7,461,189</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-2.75</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4,463,807</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>13,125,330</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>108,631,630</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>34,149,841</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5,526,844</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6,536,262</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>6,411,244</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-14,473,973</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>7,528,577</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-605,411</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>237,489,896</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>149,947,536</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>381,352,644</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3,130,197</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-420,188</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-928,700</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-942,596</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>141,204</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-334,029</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>31,426</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>48,270</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>13,614,563</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-3.66</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-2.21</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>22,807,989</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>38,973,476</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3,939,122</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8,474</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-469,679</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-520,427</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>477,020</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-142,737</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-694,644</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>404,777</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>11,109,115</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.75</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-1.12</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>24,498,880</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>40,733,688</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>89,558,900</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5,625,844</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1,178,859</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>152,955</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>8,674,209</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1,568,252</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-18,238,065</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>4,505,283</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>291,711,469</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>261,666,588</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>487,450,159</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>11,691,512</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4,660,671</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3,956,048</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6,069,930</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>7,095,844</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>39,429</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-4,066,886</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6,968,210</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>79,411,351</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>46.56</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>49,543,429</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>95,480,524</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>628,330</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>137,096</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>42,234</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-3,547</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>103,257</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>8,543</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>71,624</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>103,063</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9,809,949</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>3,213,711</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>10,985,272</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>883,479,325</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>53,375,905</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20,905,719</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>19,829,790</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>109,000,862</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-1,764,270</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-51,685,616</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>106,248,958</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,217,809,727</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>363,411,267</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,049,909,952</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2,596,441</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>180,616</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22,386</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>21,939</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-417,520</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>392,224</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>223,482</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-465,754</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>9,386,668</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,429,842</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>18,201,453</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>11,080,195</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,651,423</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>795,985</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>501,432</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-4,144,987</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-301,543</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-458,600</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-4,639,567</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>68,852,740</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>52,231,317</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>106,583,650</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>750,176</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>228,821</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>31,970</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>143,824</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-70,380</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-986,276</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1,327,261</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-93,499</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>15,974,592</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3,484,837</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>124,001,317</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>170,240</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>29,444</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>14,344</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>16,623</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>41,994</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-1,010</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>40,351</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>170,843</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>431,519</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,424,461</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>8,777,830</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1,585,213</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>479,735</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>355,366</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1,032,336</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-679,072</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1,246,452</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>504,871</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>24,460,108</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>13,360,084</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>44,903,281</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>31,591,686</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8,534,081</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5,401,320</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3,697,124</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>4,428,001</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-3,849,243</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>50,773</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>297,220</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>82,821,795</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>105,798,408</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>166,141,347</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>55,049,912</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20,049,745</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11,897,154</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10,385,669</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>9,616,321</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-5,239,080</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-10,103</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>3,848,258</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>70,160,039</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>299,083,643</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>445,677,400</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,436,943</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>754,944</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>68,521</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>48,738</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-358,001</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>232,923</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-18,663</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-427,255</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>7,159,138</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3,383,440</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>17,054,565</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>163,717</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>88,835</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>56,582</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>54,961</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-1,019,640</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-377,487</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2,372,246</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>-1,019,640</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>8,818,672</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>15,271,244</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>263,363,117</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>10,423,613</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>7,887,158</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8,782,508</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>20,519,046</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>806,032</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>10,644,178</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>18,547,973</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>282,986,840</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>156,187,610</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>530,735,307</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,362,421</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>420,332</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>81,256</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>69,278</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>96,496</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-137,587</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>3,739</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>3,634</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>5,982,575</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>5,100,244</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>11,128,812</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>132.5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>128,019</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>61,640</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-65,821</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-50,836</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-54,134</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-58,060</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-66,852</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>518,413</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-3.48</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-2.47</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>475,819</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>1,953,007</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,200,849</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,207,838</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>340,709</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>404,685</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>973,859</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-765,752</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>62,036</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>183,386</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>13,476,719</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>15,824,709</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>31,708,136</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>387.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>8,179,598</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>949,796</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>54,257</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,195,559</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-752,407</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1,329,059</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-1,130,809</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>9,677,082</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,834,146</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>36,306,407</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,018,508</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>315,766</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>194,816</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>177,489</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>438,764</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-272,879</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>226,133</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>200,970</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>3,888,061</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5,125,825</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>8,201,708</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>34,320,714</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-175,483</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>-1,381,427</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-1,926,508</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>170,043</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-7,805,392</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>7,401,665</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-1,262,444</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>125,276,858</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-3.23</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>-1.00</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>87,291,686</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>184,322,263</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,065,881</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>13,408</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-49,106</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>88,055</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>235,741</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>799,029</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-994,583</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-260,757</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>20,095,379</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>25,476,399</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>29,060,399</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>58,243,539</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>11,936,925</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3,589,418</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3,592,372</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>3,476,868</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-10,188,975</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>9,883,172</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-3,978,137</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>221,585,823</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>130,927,414</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>482,479,735</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>330,362</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>31,237</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>16,233</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>21,316</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-60,202</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-177,440</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>231,476</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-75,361</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,381,685</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,753,423</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,666,506</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>390,448</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>116,991</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>36,240</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>31,092</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-18,627</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-10,958</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-1,321</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-28,365</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>294,211</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>539,938</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,638,251</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>31,693,585</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5,901,378</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>940,639</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1,110,807</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>6,231,640</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-6,099,971</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2,394,835</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-44,951</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>83,852,108</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>158,012,762</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>301,627,419</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,243,114</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>343,962</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>159,390</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>142,745</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>401,177</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-147,508</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-89,077</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>306,523</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,259,441</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,568,042</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>9,809,154</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>430,831</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>83,579</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14,529</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>26,360</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>104,884</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>14,229</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-39,322</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>84,081</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>364,811</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,337,260</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4,380,343</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3,529,556</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>961,813</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>512,592</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>431,001</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,599,659</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-1,709,659</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>10,357</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-121,054</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>15,699,945</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>20,741,968</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>37,883,726</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>78,150,572</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,605,770</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>888,281</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,045,375</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-1,899,868</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-349,859</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1,734,088</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-2,216,101</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>84,223,537</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,221,000</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>130,031,332</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6,779,147</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1,168,420</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>183,392</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>156,316</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-765,953</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-76,761</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>16,792</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-849,831</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,124,610</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>2,807,179</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10,156,418</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>8,870,920</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>792,512</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>286,055</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>302,503</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-591,047</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-409,580</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>364,721</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>-628,758</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>13,882,993</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1,372,869</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>23,815,242</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>23</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5,037,014</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>288,012</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>76,078</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>68,648</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-21,824</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-3,820</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>312,816</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-26,281</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>4,455,473</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>197,602</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>6,193,948</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>28.95</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>894,351</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>376,051</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>149,755</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>120,273</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>116,146</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-33,397</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-86,605</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>81,302</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>3,027,389</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,546,769</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,998,392</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>614,475</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>262,884</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-20,018</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-35,096</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-9,146</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-47,276</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-96,614</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-60,711</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>4,770,933</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-0.17</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>7,288,415</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>9,556,600</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>341</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,496,614</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>595,062</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>350,082</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>296,152</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>198,930</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-281,455</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-7,903</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>-73,030</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,571,602</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>2,870,212</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,316,743</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>147,495</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>-15,880</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-83,152</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-60,630</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>45,716</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-48,426</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>9,778</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>40,055</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>625,858</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-2.75</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-2.11</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>389,484</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>2,798,486</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>10,230,203</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1,972,017</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>801,037</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>735,431</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>563,108</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-296,279</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-290,442</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>259,023</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>10,387,955</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>10,435,567</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>22,388,172</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>211.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14,199,655</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,121,278</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,202,540</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1,066,069</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1,382,032</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-843,787</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>1,248,140</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1,055,305</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>24,688,124</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,517,027</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>43,425,281</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>13,538,420</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,288,190</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1,180,398</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>951,144</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>120,158</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-659,490</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-172,694</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>-51,865</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>29,188,656</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>14,948,551</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>78,189,243</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>638,535</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>89,449</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1,188</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>22,855</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>51,467</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-7,443</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-36,772</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>46,229</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1,879,211</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>990,639</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4,581,994</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4,536,957</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>968,367</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>353,363</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>361,263</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-174,744</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>15,333</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>157,245</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-268,204</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>12,118,053</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,385,113</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>33,260,008</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>170,634,865</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,344,379</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,304,122</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-2,124,885</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>5,803,728</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>990,557</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-4,546,958</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>4,467,769</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>225,680,033</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>-2.16</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>-0.54</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>22,109,195</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>322,487,916</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>-0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>110,335,999</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>14,810,531</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5,039,855</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4,422,418</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-255,362</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-1,023,213</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>710,292</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>-683,497</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>145,684,750</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>10,539,031</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>290,714,516</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>29,813,513</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,549,638</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>798,043</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>423,449</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-4,188,388</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-682,335</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>7,616,529</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-4,624,671</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>70,068,834</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,886,643</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>97,124,951</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>190</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>8,146,552</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3,379,025</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,365,375</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,156,255</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>616,358</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-534,047</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>33,805</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>210,203</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>8,171,141</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>8,159,607</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>29,195,831</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>15,293,131</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3,034,649</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>684,633</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>725,268</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1,090,045</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>187,418</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>-210,125</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>778,755</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>14,320,012</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,357,203</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>36,851,376</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>143,151</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>36,252</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-6,589</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>12,719</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-21,985</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>8,908</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>-21,985</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>316,085</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>6,122</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,058,728</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>32.65</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1,990,157</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>164,745</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>60,903</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>54,917</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-131,025</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-7,690</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>198,818</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-131,903</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2,684,015</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>368,527</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>4,532,622</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>133.5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>373,783</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>340,561</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>153,327</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>123,855</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>125,299</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-1,717</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>123,572</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>278,224</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>37,660</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>1,870,508</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>1.75</t>
         </is>
       </c>
     </row>
